--- a/resdataTemp-25.xlsx
+++ b/resdataTemp-25.xlsx
@@ -525,7 +525,7 @@
         <v>942.7896748053469</v>
       </c>
       <c r="E3" t="n">
-        <v>407.3208580132376</v>
+        <v>446.2858547859791</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -559,7 +559,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>50.81954664737302</v>
+        <v>9.753972136641417</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -584,31 +584,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>561.5221752666238</v>
+        <v>534.7911783372274</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>1008.051043725856</v>
+        <v>955.3732116881868</v>
       </c>
       <c r="E5" t="n">
-        <v>458.1404046606106</v>
+        <v>456.0398269226205</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7723711306844129</v>
+        <v>0.7787678682032161</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1108137339877432</v>
+        <v>0.1212099276941818</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03694786318672518</v>
+        <v>0.03142324402267322</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07312452336607585</v>
+        <v>0.06205205262035672</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006742748775042776</v>
+        <v>0.006546907459572101</v>
       </c>
     </row>
     <row r="6">
@@ -618,31 +618,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>474.7161254343036</v>
+        <v>461.9602060163875</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>907.687969262397</v>
+        <v>872.1458313437614</v>
       </c>
       <c r="E6" t="n">
-        <v>458.1404046606106</v>
+        <v>456.0398269226205</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7723711306844129</v>
+        <v>0.7787678682032161</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1108137339877432</v>
+        <v>0.1212099276941818</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03694786318672518</v>
+        <v>0.03142324402267322</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07312452336607585</v>
+        <v>0.06205205262035672</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006742748775042776</v>
+        <v>0.006546907459572101</v>
       </c>
     </row>
     <row r="7">
@@ -652,31 +652,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5993370213149</v>
+        <v>292.4026293962573</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>677.4758601590597</v>
+        <v>683.8220234409015</v>
       </c>
       <c r="E7" t="n">
-        <v>458.1404046606106</v>
+        <v>456.0398269226205</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7723711306844129</v>
+        <v>0.7787678682032161</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1108137339877432</v>
+        <v>0.1212099276941818</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03694786318672518</v>
+        <v>0.03142324402267322</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07312452336607585</v>
+        <v>0.06205205262035672</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006742748775042776</v>
+        <v>0.006546907459572101</v>
       </c>
     </row>
     <row r="8">
@@ -686,31 +686,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>203.395725715409</v>
+        <v>229.171829197388</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>606.8863880110202</v>
+        <v>615.4510435942727</v>
       </c>
       <c r="E8" t="n">
-        <v>458.1404046606106</v>
+        <v>456.0398269226205</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7723711306844129</v>
+        <v>0.7787678682032161</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1108137339877432</v>
+        <v>0.1212099276941818</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03694786318672518</v>
+        <v>0.03142324402267322</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07312452336607585</v>
+        <v>0.06205205262035672</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006742748775042776</v>
+        <v>0.006546907459572101</v>
       </c>
     </row>
     <row r="9">
@@ -720,31 +720,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>202.5011596955477</v>
+        <v>228.2493304641631</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>605.9244397814653</v>
+        <v>614.4602882244583</v>
       </c>
       <c r="E9" t="n">
-        <v>458.1404046606106</v>
+        <v>456.0398269226205</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7723711306844129</v>
+        <v>0.7787678682032161</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1108137339877432</v>
+        <v>0.1212099276941818</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03694786318672518</v>
+        <v>0.03142324402267322</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07312452336607585</v>
+        <v>0.06205205262035672</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006742748775042776</v>
+        <v>0.006546907459572101</v>
       </c>
     </row>
     <row r="10">
@@ -754,31 +754,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.6496710734768</v>
+        <v>169.3547349269648</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>553.6334805008215</v>
+        <v>551.5703540246931</v>
       </c>
       <c r="E10" t="n">
-        <v>458.1404046606106</v>
+        <v>456.0398269226205</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7723711306844129</v>
+        <v>0.7787678682032161</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1108137339877432</v>
+        <v>0.1212099276941818</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03694786318672518</v>
+        <v>0.03142324402267322</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07312452336607585</v>
+        <v>0.06205205262035672</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006742748775042776</v>
+        <v>0.006546907459572101</v>
       </c>
     </row>
     <row r="11">
@@ -788,31 +788,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.53955252313941</v>
+        <v>110.0616464139515</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>496.1989446140993</v>
+        <v>488.8850975453698</v>
       </c>
       <c r="E11" t="n">
-        <v>458.1404046606106</v>
+        <v>456.0398269226205</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7723711306844129</v>
+        <v>0.7787678682032161</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1108137339877432</v>
+        <v>0.1212099276941818</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03694786318672518</v>
+        <v>0.03142324402267322</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07312452336607585</v>
+        <v>0.06205205262035672</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006742748775042776</v>
+        <v>0.006546907459572101</v>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>48.17230783876576</v>
+        <v>9.245878395519354</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -855,7 +855,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>2.647238808607297</v>
+        <v>0.5080937411220717</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.067732207548523</v>
+        <v>0.9130683080712912</v>
       </c>
       <c r="C2" t="n">
-        <v>1.11045744067459</v>
+        <v>0.9751766201678088</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9615246550105406</v>
+        <v>0.9363107043257149</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4966129541361917</v>
+        <v>0.5361736706361896</v>
       </c>
     </row>
     <row r="3">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.37497053287889</v>
+        <v>70.85268159995728</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -993,12 +993,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.55186251298092</v>
+        <v>32.04177635202665</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493154241656583</v>
+        <v>0.8492514166538658</v>
       </c>
     </row>
     <row r="9">
@@ -1008,12 +1008,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.443981591088775</v>
+        <v>8.69584126047134</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8371963598622095</v>
+        <v>0.8372028630589876</v>
       </c>
     </row>
     <row r="10">
@@ -1023,12 +1023,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.614496165995527</v>
+        <v>5.117885241693752</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8149531193928955</v>
+        <v>0.8149499887681726</v>
       </c>
     </row>
     <row r="11">
@@ -1038,12 +1038,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.76463026281368</v>
+        <v>24.99717874576554</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.8101565816499774</v>
+        <v>0.8282609982823242</v>
       </c>
     </row>
     <row r="12">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07235054916577381</v>
+        <v>0.2444935252710382</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07412927547218494</v>
+        <v>0.254050155438834</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9760050763334582</v>
+        <v>0.9623828997416354</v>
       </c>
       <c r="E12" t="n">
-        <v>0.75</v>
+        <v>0.2026743391665775</v>
       </c>
     </row>
     <row r="13">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>319945.2226933662</v>
+        <v>47327.24779955426</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>480425.9481957002</v>
+        <v>71012.79575987259</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1134,10 +1134,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39765.4651914251</v>
+        <v>39997.79299139845</v>
       </c>
       <c r="C2" t="n">
-        <v>40167.13655699505</v>
+        <v>40401.81110242267</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86463.18609868283</v>
+        <v>89219.64206274872</v>
       </c>
       <c r="C3" t="n">
-        <v>87336.55161483114</v>
+        <v>90120.85056843306</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1166,10 +1166,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38149.01903490469</v>
+        <v>37489.99850897781</v>
       </c>
       <c r="C4" t="n">
-        <v>38534.36266151989</v>
+        <v>37868.68536260385</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1182,10 +1182,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>505.9621351247785</v>
+        <v>504.0833566305425</v>
       </c>
       <c r="C5" t="n">
-        <v>511.0728637624026</v>
+        <v>509.1751077076187</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33189.533748272</v>
+        <v>32526.97740338169</v>
       </c>
       <c r="C6" t="n">
-        <v>33524.78156391111</v>
+        <v>32855.53273068858</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39158.63512402144</v>
+        <v>38389.49803684107</v>
       </c>
       <c r="C7" t="n">
-        <v>39554.17689295095</v>
+        <v>38777.27074428391</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80155.5932507945</v>
+        <v>15029.05488605408</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>251835.7116896993</v>
+        <v>37216.59299303452</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1414,10 +1414,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>463335273.1992406</v>
+        <v>81664172.26475707</v>
       </c>
       <c r="C3" t="n">
-        <v>73.38543577225954</v>
+        <v>46.72989511865649</v>
       </c>
       <c r="D3" t="n">
         <v>10000</v>
@@ -1498,16 +1498,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501.313644162021</v>
+        <v>510.8651813671872</v>
       </c>
       <c r="C3" t="n">
-        <v>8.211484739209592</v>
+        <v>6.528119939004093</v>
       </c>
       <c r="D3" t="n">
-        <v>3400.218143032941</v>
+        <v>3443.006488522791</v>
       </c>
       <c r="E3" t="n">
-        <v>61.19886131098805</v>
+        <v>56.18447598550686</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -1519,16 +1519,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>299.5733162122102</v>
+        <v>284.6476889102734</v>
       </c>
       <c r="C4" t="n">
-        <v>8.536400291024741</v>
+        <v>6.87863001744394</v>
       </c>
       <c r="D4" t="n">
-        <v>2750.455229715682</v>
+        <v>2774.192348543811</v>
       </c>
       <c r="E4" t="n">
-        <v>61.19886131098805</v>
+        <v>56.18447598550686</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -1540,16 +1540,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>298.7218684473986</v>
+        <v>284.5382493241412</v>
       </c>
       <c r="C5" t="n">
-        <v>8.536400291024741</v>
+        <v>6.87863001744394</v>
       </c>
       <c r="D5" t="n">
-        <v>1337.746729263267</v>
+        <v>1260.790313849852</v>
       </c>
       <c r="E5" t="n">
-        <v>61.19886131098805</v>
+        <v>56.18447598550686</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -1561,16 +1561,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167.9299705441579</v>
+        <v>167.4518452985066</v>
       </c>
       <c r="C6" t="n">
-        <v>8.536400291024741</v>
+        <v>6.87863001744394</v>
       </c>
       <c r="D6" t="n">
-        <v>714.3904712289205</v>
+        <v>711.3787069138914</v>
       </c>
       <c r="E6" t="n">
-        <v>61.19886131098805</v>
+        <v>56.18447598550686</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -1582,16 +1582,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.9328382497879</v>
+        <v>158.9895391122733</v>
       </c>
       <c r="C7" t="n">
-        <v>0.699768167428764</v>
+        <v>0.6025077482676722</v>
       </c>
       <c r="D7" t="n">
-        <v>696.9435419123319</v>
+        <v>671.0851064146365</v>
       </c>
       <c r="E7" t="n">
-        <v>61.19886131098805</v>
+        <v>56.18447598550686</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -1603,16 +1603,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>178.0146409755257</v>
+        <v>171.3593960619556</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6937290611287081</v>
+        <v>0.5969298924946745</v>
       </c>
       <c r="D8" t="n">
-        <v>2795.118977002255</v>
+        <v>2786.418509698585</v>
       </c>
       <c r="E8" t="n">
-        <v>15.62474185580135</v>
+        <v>14.85990601448352</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -1624,16 +1624,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.9328381130715</v>
+        <v>158.989538987838</v>
       </c>
       <c r="C9" t="n">
-        <v>0.699768167428764</v>
+        <v>0.6025077482676722</v>
       </c>
       <c r="D9" t="n">
-        <v>2762.738837022834</v>
+        <v>2756.324150778009</v>
       </c>
       <c r="E9" t="n">
-        <v>15.62474185580135</v>
+        <v>14.85990601448352</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.1959760318874</v>
+        <v>158.9895391122733</v>
       </c>
       <c r="C10" t="n">
-        <v>0.699768167428764</v>
+        <v>0.6025077482676722</v>
       </c>
       <c r="D10" t="n">
-        <v>685.0481875619599</v>
+        <v>707.6210030256253</v>
       </c>
       <c r="E10" t="n">
-        <v>76.8236031667894</v>
+        <v>71.04438199999038</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -1666,16 +1666,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.1959760318874</v>
+        <v>158.9895391122733</v>
       </c>
       <c r="C11" t="n">
-        <v>0.699768167428764</v>
+        <v>0.6025077482676722</v>
       </c>
       <c r="D11" t="n">
-        <v>685.0481875619599</v>
+        <v>707.6210030256253</v>
       </c>
       <c r="E11" t="n">
-        <v>90.37366638128528</v>
+        <v>71.04785171670366</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -1687,16 +1687,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>60</v>
+        <v>73.74070375824436</v>
       </c>
       <c r="C12" t="n">
-        <v>0.699768167428764</v>
+        <v>0.6025077482676722</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7512239143023</v>
+        <v>309.2823749538827</v>
       </c>
       <c r="E12" t="n">
-        <v>90.37223522131488</v>
+        <v>71.04438199999038</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -1708,16 +1708,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.72091992187251</v>
+        <v>73.7420096322096</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>175.3336392983047</v>
+        <v>309.2878479754564</v>
       </c>
       <c r="E13" t="n">
-        <v>78.17563808666569</v>
+        <v>71.03954790981524</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -1729,16 +1729,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.72091992187251</v>
+        <v>73.17705459738892</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>175.3336392983047</v>
+        <v>306.9201790821466</v>
       </c>
       <c r="E14" t="n">
-        <v>78.17563808666569</v>
+        <v>62.58009683966807</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -1750,16 +1750,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>116.874455756204</v>
+        <v>114.7389828774544</v>
       </c>
       <c r="C15" t="n">
-        <v>0.179786421969127</v>
+        <v>0.1677473157885529</v>
       </c>
       <c r="D15" t="n">
-        <v>490.5429991726272</v>
+        <v>481.4867871672125</v>
       </c>
       <c r="E15" t="n">
-        <v>13.10671897730742</v>
+        <v>58.14527565846284</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -1771,16 +1771,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.01322926186373</v>
+        <v>77.30025227487778</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1797872153517231</v>
+        <v>0.167747249602283</v>
       </c>
       <c r="D16" t="n">
-        <v>322.5867703320756</v>
+        <v>323.7810371431834</v>
       </c>
       <c r="E16" t="n">
-        <v>13.10675603393451</v>
+        <v>58.14591496398415</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -1801,7 +1801,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>149.7665477342146</v>
+        <v>629.1919689578822</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1822,7 +1822,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>18.86622885855476</v>
+        <v>79.25988721720562</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -1834,16 +1834,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.48925458028184</v>
+        <v>95.25554550991586</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>399.8135089276401</v>
+        <v>398.8349690500177</v>
       </c>
       <c r="E19" t="n">
-        <v>18.86622885855476</v>
+        <v>79.25988721720562</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1855,16 +1855,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>192.615885156516</v>
+        <v>135.2548185514849</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2092975831501321</v>
+        <v>0.2240303148522967</v>
       </c>
       <c r="D20" t="n">
-        <v>2855.380193970243</v>
+        <v>2736.149401425602</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8454529933803508</v>
+        <v>9.973715929376306</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1876,16 +1876,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>120.0251464696052</v>
+        <v>122.1867013232604</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1988327039926255</v>
+        <v>0.2128287991096818</v>
       </c>
       <c r="D21" t="n">
-        <v>503.9185135010495</v>
+        <v>513.1048934546805</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8454529933803508</v>
+        <v>9.973715929376306</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1897,16 +1897,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>116.8613362850179</v>
+        <v>111.6679049525818</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>489.2984150253701</v>
+        <v>467.5535180364599</v>
       </c>
       <c r="E22" t="n">
-        <v>149.7665477342146</v>
+        <v>629.1919689578822</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1927,7 +1927,7 @@
         <v>502.4400000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>149.7665477342146</v>
+        <v>629.1919689578822</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>71.37544360755547</v>
+        <v>71.34600306242341</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -1948,7 +1948,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>149.7665477342146</v>
+        <v>629.1919689578822</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1960,16 +1960,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>184.1643175386461</v>
+        <v>117.1653722345943</v>
       </c>
       <c r="C25" t="n">
-        <v>0.18924886523066</v>
+        <v>0.1765761218826873</v>
       </c>
       <c r="D25" t="n">
-        <v>2839.37627903169</v>
+        <v>2702.3566382164</v>
       </c>
       <c r="E25" t="n">
-        <v>12.26130312032293</v>
+        <v>48.17154321140099</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1981,19 +1981,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>498.7566220265001</v>
+        <v>508.1454324150138</v>
       </c>
       <c r="C26" t="n">
-        <v>7.683548204563438</v>
+        <v>5.951518750469204</v>
       </c>
       <c r="D26" t="n">
-        <v>3400.218143032941</v>
+        <v>3443.006488522791</v>
       </c>
       <c r="E26" t="n">
-        <v>62.55089623086434</v>
+        <v>47.71956996646803</v>
       </c>
       <c r="F26" t="n">
-        <v>6.744990076254167</v>
+        <v>6.911788338299579</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2006,19 +2006,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>189.9919893526135</v>
+        <v>205.0601042198211</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5422938359809618</v>
+        <v>0.4494407928730442</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.851186598532</v>
+        <v>2869.127245041806</v>
       </c>
       <c r="E27" t="n">
-        <v>62.55089623086434</v>
+        <v>47.71956996646803</v>
       </c>
       <c r="F27" t="n">
-        <v>6.973402355724543</v>
+        <v>7.136939538461325</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2031,19 +2031,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>175.585662930013</v>
+        <v>168.7197836148559</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6117714149120924</v>
+        <v>0.5122829522426304</v>
       </c>
       <c r="D28" t="n">
-        <v>2795.118977002255</v>
+        <v>2786.418509698585</v>
       </c>
       <c r="E28" t="n">
-        <v>15.62474185580135</v>
+        <v>14.85990601448352</v>
       </c>
       <c r="F28" t="n">
-        <v>6.839235033126283</v>
+        <v>6.898332599974356</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2056,19 +2056,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>186.6533970608793</v>
+        <v>195.7901732100577</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5422938359809618</v>
+        <v>0.4494407928730442</v>
       </c>
       <c r="D29" t="n">
-        <v>2824.50962461347</v>
+        <v>2849.487514690738</v>
       </c>
       <c r="E29" t="n">
-        <v>78.17563808666569</v>
+        <v>62.57947598095156</v>
       </c>
       <c r="F29" t="n">
-        <v>6.95749325000038</v>
+        <v>7.095466450318028</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2081,22 +2081,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>127.7398047164156</v>
+        <v>135.2543844551246</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2525020624410679</v>
+        <v>0.2240149798193328</v>
       </c>
       <c r="D30" t="n">
-        <v>2703.704961904876</v>
+        <v>2736.148593869641</v>
       </c>
       <c r="E30" t="n">
-        <v>78.17563808666569</v>
+        <v>62.57947598095156</v>
       </c>
       <c r="F30" t="n">
-        <v>7.016092959797219</v>
+        <v>7.150429111545098</v>
       </c>
       <c r="G30" t="n">
-        <v>99.39257420818419</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -2106,22 +2106,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7111468219817</v>
+        <v>117.1653682508251</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1518172324260202</v>
+        <v>0.1765760511470519</v>
       </c>
       <c r="D31" t="n">
-        <v>2631.885961722603</v>
+        <v>2702.356637924261</v>
       </c>
       <c r="E31" t="n">
-        <v>78.17563808666569</v>
+        <v>52.60574353388971</v>
       </c>
       <c r="F31" t="n">
-        <v>7.0584654928595</v>
+        <v>7.17316482418791</v>
       </c>
       <c r="G31" t="n">
-        <v>97.22400895572119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
@@ -2131,22 +2131,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>111.7111468219817</v>
+        <v>107.7583847354865</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1518172324260202</v>
+        <v>0.009008405937998216</v>
       </c>
       <c r="D32" t="n">
-        <v>2631.885961722603</v>
+        <v>2702.356637924261</v>
       </c>
       <c r="E32" t="n">
-        <v>78.17563808666569</v>
+        <v>4.434181875683919</v>
       </c>
       <c r="F32" t="n">
-        <v>7.0584654928595</v>
+        <v>8.536509451579288</v>
       </c>
       <c r="G32" t="n">
-        <v>97.22400895572119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -2156,22 +2156,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>41.64472866977877</v>
+        <v>103.5322580153609</v>
       </c>
       <c r="C33" t="n">
-        <v>0.008057535565618877</v>
+        <v>0.002101697860929265</v>
       </c>
       <c r="D33" t="n">
-        <v>2289.520604459483</v>
+        <v>2695.112996315021</v>
       </c>
       <c r="E33" t="n">
-        <v>78.17563808666569</v>
+        <v>4.434181875683919</v>
       </c>
       <c r="F33" t="n">
-        <v>7.313318019077426</v>
+        <v>9.188653616604055</v>
       </c>
       <c r="G33" t="n">
-        <v>88.05483030906508</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -2181,16 +2181,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.64472866864605</v>
+        <v>18.2823364287654</v>
       </c>
       <c r="C34" t="n">
-        <v>0.008057535565618877</v>
+        <v>0.002101697860929265</v>
       </c>
       <c r="D34" t="n">
-        <v>174.4081521396893</v>
+        <v>76.72550207870493</v>
       </c>
       <c r="E34" t="n">
-        <v>78.17563808666569</v>
+        <v>4.434181875683919</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2202,16 +2202,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>41.72091992187251</v>
+        <v>20.30002695473843</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>175.3336392983047</v>
+        <v>85.82189161380933</v>
       </c>
       <c r="E35" t="n">
-        <v>78.17563808666569</v>
+        <v>4.434181875683919</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -2307,16 +2307,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>519.297884348214</v>
+        <v>495.8731232286991</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3510.872562961391</v>
+        <v>3459.13897287491</v>
       </c>
       <c r="E40" t="n">
-        <v>38.57370151356598</v>
+        <v>7.232511839713746</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -2328,16 +2328,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="D41" t="n">
-        <v>336.57</v>
+        <v>326.8030445761531</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>8.459451070147164</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -2349,16 +2349,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>534.297884348214</v>
+        <v>510.8731232286991</v>
       </c>
       <c r="C42" t="n">
-        <v>3.952089562523191</v>
+        <v>6.527960537803086</v>
       </c>
       <c r="D42" t="n">
-        <v>3524.918150964231</v>
+        <v>3443.029625563008</v>
       </c>
       <c r="E42" t="n">
-        <v>41.48499844081611</v>
+        <v>8.459451070147164</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -2460,7 +2460,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>45.44179813625323</v>
+        <v>8.520269772988929</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>45.44179813625323</v>
+        <v>8.520269772988929</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>45.44179813625323</v>
+        <v>8.520269772988929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>45.44179813625323</v>
+        <v>8.520269772988929</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2632,7 +2632,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>18.07474342299495</v>
+        <v>3.388987591989951</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2641,22 +2641,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338337</v>
+        <v>0.1686684666338336</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0509488958594417</v>
+        <v>0.0509488958594418</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489641</v>
+        <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -2665,42 +2665,18 @@
           <t>SGaccum-Separacc</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>73.38543577225954</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1266.718646027857</v>
-      </c>
-      <c r="E7" t="n">
-        <v>365775.9950500099</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.168738364456343</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0503573198627571</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.0975081144748292</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.681387369772999</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.00200883143307171</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2708,42 +2684,18 @@
           <t>Separacc-Sepout</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>73.38543577225954</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1197.684217076161</v>
-      </c>
-      <c r="E8" t="n">
-        <v>346970.6067513908</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.174369644659207</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0186650367137454</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.1007622381972549</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.7041272085657178</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.002075871864075025</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2751,42 +2703,18 @@
           <t>Sepout-COMB</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>73.38543577225954</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1197.684217076161</v>
-      </c>
-      <c r="E9" t="n">
-        <v>23.01406991329103</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.174369644659207</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0186650367137454</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.1007622381972549</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.7041272085657178</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.002075871864075025</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2794,42 +2722,18 @@
           <t>Sepout-GTU</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>73.38543577225954</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1197.684217076161</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.081111111111111</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.174369644659207</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.0186650367137454</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1007622381972549</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.7041272085657178</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.002075871864075025</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2837,18 +2741,10 @@
           <t>AIR-COMP</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>15</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>293.1871693088577</v>
-      </c>
-      <c r="E11" t="n">
-        <v>945.7081008249341</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -2864,18 +2760,10 @@
           <t>COMP-COMB</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>343.3557890055408</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>631.5000402827663</v>
-      </c>
-      <c r="E12" t="n">
-        <v>945.7081008249341</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -2891,42 +2779,18 @@
           <t>COMB-TURB</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>750</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1187.3048898804</v>
-      </c>
-      <c r="E13" t="n">
-        <v>968.7221736924582</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.7491989123070442</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.1678514053020589</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.01692157209599907</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.009605114260346721</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.05642299603455097</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2934,42 +2798,18 @@
           <t>TURB-COOL</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>315.4123959010793</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>691.3670851696122</v>
-      </c>
-      <c r="E14" t="n">
-        <v>968.7221736924582</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.7491989123070442</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.1678514053020589</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.01692157209599907</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.009605114260346721</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.05642299603455097</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2977,42 +2817,18 @@
           <t>COOL-EX</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>70</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>431.4001735732953</v>
-      </c>
-      <c r="E15" t="n">
-        <v>968.7221736924582</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.7491989123070442</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.1678514053020589</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.01692157209599907</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.009605114260346721</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.05642299603455097</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3062,16 +2878,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.067732207548523</v>
+        <v>2.263874829619995</v>
       </c>
       <c r="C2" t="n">
-        <v>1.11045744067459</v>
+        <v>2.568857317185597</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9615246550105406</v>
+        <v>0.8812769843131124</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4966129541361917</v>
+        <v>0.1711787223533678</v>
       </c>
     </row>
     <row r="3">
@@ -3104,11 +2920,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>165.66</v>
+        <v>131.4010636392536</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>34.08238306464556</v>
+        <v>31.80068887428636</v>
       </c>
     </row>
     <row r="6">
@@ -3119,7 +2935,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.30138102032644</v>
+        <v>6.2286911102996</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3131,7 +2947,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.37497053287889</v>
+        <v>36.28773157713421</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3144,12 +2960,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.55186251298092</v>
+        <v>27.3852707115946</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493154241656583</v>
+        <v>0.8488097145210853</v>
       </c>
     </row>
     <row r="9">
@@ -3159,12 +2975,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.443981591088775</v>
+        <v>7.092690273230779</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8371963598622095</v>
+        <v>0.8364403724634374</v>
       </c>
     </row>
     <row r="10">
@@ -3174,12 +2990,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.614496165995527</v>
+        <v>1.777650967971201</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8149531193928955</v>
+        <v>0.79233173254617</v>
       </c>
     </row>
     <row r="11">
@@ -3189,12 +3005,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.76463026281368</v>
+        <v>0.03211962433764216</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.8101565816499774</v>
+        <v>0.03337256789620338</v>
       </c>
     </row>
     <row r="12">
@@ -3204,16 +3020,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07235054916577381</v>
+        <v>0.04033504561072077</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07412927547218494</v>
+        <v>0.04518535834259619</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9760050763334582</v>
+        <v>0.8926574246661881</v>
       </c>
       <c r="E12" t="n">
-        <v>0.75</v>
+        <v>0.07642926562499497</v>
       </c>
     </row>
     <row r="13">
@@ -3222,9 +3038,7 @@
           <t>SGgtu_comp</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>319945.2226933662</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -3235,9 +3049,7 @@
           <t>SGgtu_turb</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>480425.9481957002</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -3285,10 +3097,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39765.4651914251</v>
+        <v>37575.4501262199</v>
       </c>
       <c r="C2" t="n">
-        <v>40167.13655699505</v>
+        <v>37955.00012749484</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3301,10 +3113,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86463.18609868283</v>
+        <v>85024.32519381479</v>
       </c>
       <c r="C3" t="n">
-        <v>87336.55161483114</v>
+        <v>85883.15676142908</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3317,10 +3129,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38149.01903490469</v>
+        <v>30868.09091762869</v>
       </c>
       <c r="C4" t="n">
-        <v>38534.36266151989</v>
+        <v>31179.88981578656</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3333,10 +3145,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>505.9621351247785</v>
+        <v>447.3056682991108</v>
       </c>
       <c r="C5" t="n">
-        <v>511.0728637624026</v>
+        <v>451.8239073728392</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3349,10 +3161,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33189.533748272</v>
+        <v>28393.51156055956</v>
       </c>
       <c r="C6" t="n">
-        <v>33524.78156391111</v>
+        <v>28680.31470763592</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3365,10 +3177,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39158.63512402144</v>
+        <v>28301.10378027635</v>
       </c>
       <c r="C7" t="n">
-        <v>39554.17689295095</v>
+        <v>28586.97351543065</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3381,11 +3193,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>21.95029427665347</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="9">
@@ -3395,11 +3207,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>106.2250979191091</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="10">
@@ -3409,11 +3221,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>9.078242731026025</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="11">
@@ -3423,7 +3235,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>24548.9254901237</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -3435,7 +3247,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1812.640795226589</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -3447,7 +3259,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16192.84303089475</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -3459,7 +3271,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>5604.138440079767</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -3471,7 +3283,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>4048.736373573831</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -3483,7 +3295,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80155.5932507945</v>
+        <v>15029.05488605408</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -3495,7 +3307,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>26494.57049493427</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -3506,9 +3318,7 @@
           <t>SGgtu_Qsw</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>251835.7116896993</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
@@ -3564,11 +3374,9 @@
           <t>PKM</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>463335273.1992406</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>73.38543577225954</v>
+        <v>250</v>
       </c>
       <c r="D3" t="n">
         <v>10000</v>
@@ -3665,16 +3473,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>528.3242241888</v>
+        <v>542.1</v>
       </c>
       <c r="C3" t="n">
         <v>0.1</v>
       </c>
       <c r="D3" t="n">
-        <v>942.7896748053469</v>
+        <v>958.8691985312861</v>
       </c>
       <c r="E3" t="n">
-        <v>407.3208580132376</v>
+        <v>503.8</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -3698,33 +3506,17 @@
           <t>REF-SMESH</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>800</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>0.1</v>
       </c>
-      <c r="D4" t="n">
-        <v>1531.123730073688</v>
-      </c>
-      <c r="E4" t="n">
-        <v>50.81954664737302</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.710320591016015</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.00996710270335893</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.090538556815177</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.180531273012258</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.008642476453191781</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3732,33 +3524,19 @@
           <t>GTU-PEVD</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>561.5221752666238</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D5" t="n">
-        <v>1008.051043725856</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>458.1404046606106</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7723711306844129</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1108137339877432</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.03694786318672518</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.07312452336607585</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.006742748775042776</v>
-      </c>
+        <v>503.8</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3766,33 +3544,17 @@
           <t>PEVD-IVD</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>474.7161254343036</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
-      <c r="D6" t="n">
-        <v>907.687969262397</v>
-      </c>
-      <c r="E6" t="n">
-        <v>458.1404046606106</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.7723711306844129</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1108137339877432</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.03694786318672518</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.07312452336607585</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.006742748775042776</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3800,33 +3562,17 @@
           <t>IVD-EVD</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>268.5993370213149</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
-      <c r="D7" t="n">
-        <v>677.4758601590597</v>
-      </c>
-      <c r="E7" t="n">
-        <v>458.1404046606106</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.7723711306844129</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1108137339877432</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.03694786318672518</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.07312452336607585</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.006742748775042776</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3834,33 +3580,17 @@
           <t>EVD-PPND</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>203.395725715409</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
-      <c r="D8" t="n">
-        <v>606.8863880110202</v>
-      </c>
-      <c r="E8" t="n">
-        <v>458.1404046606106</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.7723711306844129</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.1108137339877432</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.03694786318672518</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.07312452336607585</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.006742748775042776</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3868,33 +3598,17 @@
           <t>PPND-IND</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>202.5011596955477</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
-      <c r="D9" t="n">
-        <v>605.9244397814653</v>
-      </c>
-      <c r="E9" t="n">
-        <v>458.1404046606106</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.7723711306844129</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.1108137339877432</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.03694786318672518</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.07312452336607585</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.006742748775042776</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3902,33 +3616,17 @@
           <t>IND-GPK</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>153.6496710734768</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
-      <c r="D10" t="n">
-        <v>553.6334805008215</v>
-      </c>
-      <c r="E10" t="n">
-        <v>458.1404046606106</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.7723711306844129</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.1108137339877432</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.03694786318672518</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.07312452336607585</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.006742748775042776</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3936,33 +3634,17 @@
           <t>GPK-out</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>99.53955252313941</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
-      <c r="D11" t="n">
-        <v>496.1989446140993</v>
-      </c>
-      <c r="E11" t="n">
-        <v>458.1404046606106</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.7723711306844129</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.1108137339877432</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.03694786318672518</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.07312452336607585</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.006742748775042776</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3970,18 +3652,12 @@
           <t>AIR-REF</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>15</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
         <v>0.1</v>
       </c>
-      <c r="D12" t="n">
-        <v>288.39</v>
-      </c>
-      <c r="E12" t="n">
-        <v>48.17230783876576</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -3994,18 +3670,12 @@
           <t>CH4-REF</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>15</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D13" t="n">
-        <v>881.5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.647238808607297</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -4087,16 +3757,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501.313644162021</v>
+        <v>502.4370937388351</v>
       </c>
       <c r="C3" t="n">
-        <v>8.211484739209592</v>
+        <v>7.51616842078602</v>
       </c>
       <c r="D3" t="n">
-        <v>3400.218143032941</v>
+        <v>3411.248648279481</v>
       </c>
       <c r="E3" t="n">
-        <v>61.19886131098805</v>
+        <v>61.4709123785423</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4108,16 +3778,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>299.5733162122102</v>
+        <v>293.9176007282214</v>
       </c>
       <c r="C4" t="n">
-        <v>8.536400291024741</v>
+        <v>7.875838208721954</v>
       </c>
       <c r="D4" t="n">
-        <v>2750.455229715682</v>
+        <v>2760.515137843236</v>
       </c>
       <c r="E4" t="n">
-        <v>61.19886131098805</v>
+        <v>61.4709123785423</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4129,16 +3799,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>298.7218684473986</v>
+        <v>293.5159428826183</v>
       </c>
       <c r="C5" t="n">
-        <v>8.536400291024741</v>
+        <v>7.875838208721954</v>
       </c>
       <c r="D5" t="n">
-        <v>1337.746729263267</v>
+        <v>1309.089869163811</v>
       </c>
       <c r="E5" t="n">
-        <v>61.19886131098805</v>
+        <v>61.4709123785423</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4150,16 +3820,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167.9299705441579</v>
+        <v>164.5036782812882</v>
       </c>
       <c r="C6" t="n">
-        <v>8.536400291024741</v>
+        <v>7.875838208721954</v>
       </c>
       <c r="D6" t="n">
-        <v>714.3904712289205</v>
+        <v>699.1852468843637</v>
       </c>
       <c r="E6" t="n">
-        <v>61.19886131098805</v>
+        <v>61.4709123785423</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4171,16 +3841,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.9328382497879</v>
+        <v>162.0373959122578</v>
       </c>
       <c r="C7" t="n">
-        <v>0.699768167428764</v>
+        <v>0.6509386931352631</v>
       </c>
       <c r="D7" t="n">
-        <v>696.9435419123319</v>
+        <v>684.3315823991426</v>
       </c>
       <c r="E7" t="n">
-        <v>61.19886131098805</v>
+        <v>61.4709123785423</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4192,16 +3862,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>178.0146409755257</v>
+        <v>175.6100917458214</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6937290611287081</v>
+        <v>0.6448577399570634</v>
       </c>
       <c r="D8" t="n">
-        <v>2795.118977002255</v>
+        <v>2792.873137802929</v>
       </c>
       <c r="E8" t="n">
-        <v>15.62474185580135</v>
+        <v>15.17853360399443</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4213,16 +3883,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.9328381130715</v>
+        <v>162.0373957816074</v>
       </c>
       <c r="C9" t="n">
-        <v>0.699768167428764</v>
+        <v>0.6509386931352631</v>
       </c>
       <c r="D9" t="n">
-        <v>2762.738837022834</v>
+        <v>2759.661099975818</v>
       </c>
       <c r="E9" t="n">
-        <v>15.62474185580135</v>
+        <v>15.17853360399443</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4234,16 +3904,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.1959760318874</v>
+        <v>158.9515960755936</v>
       </c>
       <c r="C10" t="n">
-        <v>0.699768167428764</v>
+        <v>0.6509386931352631</v>
       </c>
       <c r="D10" t="n">
-        <v>685.0481875619599</v>
+        <v>670.9491345289802</v>
       </c>
       <c r="E10" t="n">
-        <v>76.8236031667894</v>
+        <v>76.64944598253673</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4255,16 +3925,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.1959760318874</v>
+        <v>158.9515960755936</v>
       </c>
       <c r="C11" t="n">
-        <v>0.699768167428764</v>
+        <v>0.6509386931352631</v>
       </c>
       <c r="D11" t="n">
-        <v>685.0481875619599</v>
+        <v>670.9491345289802</v>
       </c>
       <c r="E11" t="n">
-        <v>90.37366638128528</v>
+        <v>91.56950186232969</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4279,13 +3949,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.699768167428764</v>
+        <v>0.6509386931352631</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7512239143023</v>
+        <v>251.7102230976855</v>
       </c>
       <c r="E12" t="n">
-        <v>90.37223522131488</v>
+        <v>91.57673104208992</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4297,16 +3967,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.72091992187251</v>
+        <v>40.45991890530223</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>175.3336392983047</v>
+        <v>170.0650773855734</v>
       </c>
       <c r="E13" t="n">
-        <v>78.17563808666569</v>
+        <v>71.36300958950129</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4318,16 +3988,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.72091992187251</v>
+        <v>40.45991890530223</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>175.3336392983047</v>
+        <v>170.0650773855734</v>
       </c>
       <c r="E14" t="n">
-        <v>78.17563808666569</v>
+        <v>71.36300958950129</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4339,16 +4009,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>116.874455756204</v>
+        <v>114.7389828774544</v>
       </c>
       <c r="C15" t="n">
-        <v>0.179786421969127</v>
+        <v>0.1677473157885529</v>
       </c>
       <c r="D15" t="n">
-        <v>490.5429991726272</v>
+        <v>481.4867871672125</v>
       </c>
       <c r="E15" t="n">
-        <v>13.10671897730742</v>
+        <v>58.14527565846284</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4360,16 +4030,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.01322926186373</v>
+        <v>77.30025227487778</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1797872153517231</v>
+        <v>0.167747249602283</v>
       </c>
       <c r="D16" t="n">
-        <v>322.5867703320756</v>
+        <v>323.7810371431834</v>
       </c>
       <c r="E16" t="n">
-        <v>13.10675603393451</v>
+        <v>58.14591496398415</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -4390,7 +4060,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>149.7665477342146</v>
+        <v>629.1919689578822</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -4411,7 +4081,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>18.86622885855476</v>
+        <v>79.25988721720562</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -4423,16 +4093,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.48925458028184</v>
+        <v>95.25554550991586</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>399.8135089276401</v>
+        <v>398.8349690500177</v>
       </c>
       <c r="E19" t="n">
-        <v>18.86622885855476</v>
+        <v>79.25988721720562</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -4444,16 +4114,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>192.615885156516</v>
+        <v>135.2548185514849</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2092975831501321</v>
+        <v>0.2240303148522967</v>
       </c>
       <c r="D20" t="n">
-        <v>2855.380193970243</v>
+        <v>2736.149401425602</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8454529933803508</v>
+        <v>9.973715929376306</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -4465,16 +4135,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>120.0251464696052</v>
+        <v>122.1867013232604</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1988327039926255</v>
+        <v>0.2128287991096818</v>
       </c>
       <c r="D21" t="n">
-        <v>503.9185135010495</v>
+        <v>513.1048934546805</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8454529933803508</v>
+        <v>9.973715929376306</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -4486,16 +4156,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>116.8613362850179</v>
+        <v>111.6679049525818</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>489.2984150253701</v>
+        <v>467.5535180364599</v>
       </c>
       <c r="E22" t="n">
-        <v>149.7665477342146</v>
+        <v>629.1919689578822</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -4516,7 +4186,7 @@
         <v>502.4400000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>149.7665477342146</v>
+        <v>629.1919689578822</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -4528,7 +4198,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>71.37544360755547</v>
+        <v>71.34600306242341</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -4537,7 +4207,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>149.7665477342146</v>
+        <v>629.1919689578822</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -4549,16 +4219,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>184.1643175386461</v>
+        <v>117.1653722345943</v>
       </c>
       <c r="C25" t="n">
-        <v>0.18924886523066</v>
+        <v>0.1765761218826873</v>
       </c>
       <c r="D25" t="n">
-        <v>2839.37627903169</v>
+        <v>2702.3566382164</v>
       </c>
       <c r="E25" t="n">
-        <v>12.26130312032293</v>
+        <v>48.17154321140099</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -4570,19 +4240,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>498.7566220265001</v>
+        <v>499.5980638086423</v>
       </c>
       <c r="C26" t="n">
-        <v>7.683548204563438</v>
+        <v>6.929798514740115</v>
       </c>
       <c r="D26" t="n">
-        <v>3400.218143032941</v>
+        <v>3411.248648279481</v>
       </c>
       <c r="E26" t="n">
-        <v>62.55089623086434</v>
+        <v>56.18447598550686</v>
       </c>
       <c r="F26" t="n">
-        <v>6.744990076254167</v>
+        <v>6.80415959291902</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -4595,19 +4265,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>189.9919893526135</v>
+        <v>192.987796948344</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5422938359809618</v>
+        <v>0.4963292569303341</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.851186598532</v>
+        <v>2840.952747321145</v>
       </c>
       <c r="E27" t="n">
-        <v>62.55089623086434</v>
+        <v>56.18447598550686</v>
       </c>
       <c r="F27" t="n">
-        <v>6.973402355724543</v>
+        <v>7.032631725497058</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -4620,19 +4290,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>175.585662930013</v>
+        <v>173.1009786701092</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6117714149120924</v>
+        <v>0.5618952445607425</v>
       </c>
       <c r="D28" t="n">
-        <v>2795.118977002255</v>
+        <v>2792.873137802929</v>
       </c>
       <c r="E28" t="n">
-        <v>15.62474185580135</v>
+        <v>15.17853360399443</v>
       </c>
       <c r="F28" t="n">
-        <v>6.839235033126283</v>
+        <v>6.871855034218398</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -4645,19 +4315,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>186.6533970608793</v>
+        <v>188.2647480514622</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5422938359809618</v>
+        <v>0.4963292569303341</v>
       </c>
       <c r="D29" t="n">
-        <v>2824.50962461347</v>
+        <v>2830.726469408581</v>
       </c>
       <c r="E29" t="n">
-        <v>78.17563808666569</v>
+        <v>71.36300958950129</v>
       </c>
       <c r="F29" t="n">
-        <v>6.95749325000038</v>
+        <v>7.010581393538367</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -4670,22 +4340,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>127.7398047164156</v>
+        <v>124.7312677454779</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2525020624410679</v>
+        <v>0.2303240779994906</v>
       </c>
       <c r="D30" t="n">
-        <v>2703.704961904876</v>
+        <v>2708.872846495365</v>
       </c>
       <c r="E30" t="n">
-        <v>78.17563808666569</v>
+        <v>71.36300958950129</v>
       </c>
       <c r="F30" t="n">
-        <v>7.016092959797219</v>
+        <v>7.070134032467766</v>
       </c>
       <c r="G30" t="n">
-        <v>99.39257420818419</v>
+        <v>99.82439172673294</v>
       </c>
     </row>
     <row r="31">
@@ -4695,22 +4365,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7111468219817</v>
+        <v>108.9682652898378</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1518172324260202</v>
+        <v>0.1384798726317631</v>
       </c>
       <c r="D31" t="n">
-        <v>2631.885961722603</v>
+        <v>2637.156627250504</v>
       </c>
       <c r="E31" t="n">
-        <v>78.17563808666569</v>
+        <v>71.36300958950129</v>
       </c>
       <c r="F31" t="n">
-        <v>7.0584654928595</v>
+        <v>7.112750529252851</v>
       </c>
       <c r="G31" t="n">
-        <v>97.22400895572119</v>
+        <v>97.65574758428687</v>
       </c>
     </row>
     <row r="32">
@@ -4720,22 +4390,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>111.7111468219817</v>
+        <v>108.9682652898378</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1518172324260202</v>
+        <v>0.1384798726317631</v>
       </c>
       <c r="D32" t="n">
-        <v>2631.885961722603</v>
+        <v>2637.156627250504</v>
       </c>
       <c r="E32" t="n">
-        <v>78.17563808666569</v>
+        <v>71.36300958950129</v>
       </c>
       <c r="F32" t="n">
-        <v>7.0584654928595</v>
+        <v>7.112750529252851</v>
       </c>
       <c r="G32" t="n">
-        <v>97.22400895572119</v>
+        <v>97.65574758428687</v>
       </c>
     </row>
     <row r="33">
@@ -4745,22 +4415,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>41.64472866977877</v>
+        <v>39.78612067462552</v>
       </c>
       <c r="C33" t="n">
-        <v>0.008057535565618877</v>
+        <v>0.007301142470319438</v>
       </c>
       <c r="D33" t="n">
-        <v>2289.520604459483</v>
+        <v>2286.874612947074</v>
       </c>
       <c r="E33" t="n">
-        <v>78.17563808666569</v>
+        <v>71.36300958950129</v>
       </c>
       <c r="F33" t="n">
-        <v>7.313318019077426</v>
+        <v>7.344844504229215</v>
       </c>
       <c r="G33" t="n">
-        <v>88.05483030906508</v>
+        <v>88.10494091995908</v>
       </c>
     </row>
     <row r="34">
@@ -4770,16 +4440,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.64472866864605</v>
+        <v>39.78612067543662</v>
       </c>
       <c r="C34" t="n">
-        <v>0.008057535565618877</v>
+        <v>0.007301142470319438</v>
       </c>
       <c r="D34" t="n">
-        <v>174.4081521396893</v>
+        <v>166.6390233741545</v>
       </c>
       <c r="E34" t="n">
-        <v>78.17563808666569</v>
+        <v>71.36300958950129</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -4791,16 +4461,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>41.72091992187251</v>
+        <v>40.45991890530223</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>175.3336392983047</v>
+        <v>170.0650773855734</v>
       </c>
       <c r="E35" t="n">
-        <v>78.17563808666569</v>
+        <v>71.36300958950129</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -4896,16 +4566,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>519.297884348214</v>
+        <v>495.8731232286991</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3510.872562961391</v>
+        <v>3459.13897287491</v>
       </c>
       <c r="E40" t="n">
-        <v>38.57370151356598</v>
+        <v>7.232511839713746</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -4938,16 +4608,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>534.297884348214</v>
+        <v>510.8731232286991</v>
       </c>
       <c r="C42" t="n">
-        <v>3.952089562523191</v>
+        <v>6.527960537803086</v>
       </c>
       <c r="D42" t="n">
-        <v>3524.918150964231</v>
+        <v>3443.029625563008</v>
       </c>
       <c r="E42" t="n">
-        <v>41.48499844081611</v>
+        <v>8.459451070147164</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -5049,7 +4719,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>45.44179813625323</v>
+        <v>8.520269772988929</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5092,7 +4762,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>45.44179813625323</v>
+        <v>8.520269772988929</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5135,7 +4805,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>45.44179813625323</v>
+        <v>8.520269772988929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5178,7 +4848,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>45.44179813625323</v>
+        <v>8.520269772988929</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5221,7 +4891,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>18.07474342299495</v>
+        <v>3.388987591989951</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5230,22 +4900,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338337</v>
+        <v>0.1686684666338336</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0509488958594417</v>
+        <v>0.0509488958594418</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489641</v>
+        <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -5255,16 +4925,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.38543577225954</v>
+        <v>46.72989511865649</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1266.718646027857</v>
+        <v>1190.734925125843</v>
       </c>
       <c r="E7" t="n">
-        <v>365775.9950500099</v>
+        <v>68582.99907187685</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5298,16 +4968,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73.38543577225954</v>
+        <v>46.72989511865649</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1197.684217076161</v>
+        <v>1088.659826740889</v>
       </c>
       <c r="E8" t="n">
-        <v>346970.6067513908</v>
+        <v>63646.28475223637</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -5316,22 +4986,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.174369644659207</v>
+        <v>0.176729330900043</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0186650367137454</v>
+        <v>0.005384957976166722</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1007622381972549</v>
+        <v>0.102125819957914</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7041272085657178</v>
+        <v>0.7136559272202639</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002075871864075025</v>
+        <v>0.002103963945612324</v>
       </c>
     </row>
     <row r="9">
@@ -5341,16 +5011,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>73.38543577225954</v>
+        <v>46.72989511865649</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1197.684217076161</v>
+        <v>1088.659826740888</v>
       </c>
       <c r="E9" t="n">
-        <v>23.01406991329103</v>
+        <v>3.338769774460859</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5359,22 +5029,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.174369644659207</v>
+        <v>0.176729330900043</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0186650367137454</v>
+        <v>0.005384957976166722</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1007622381972549</v>
+        <v>0.102125819957914</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7041272085657178</v>
+        <v>0.7136559272202639</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002075871864075025</v>
+        <v>0.002103963945612324</v>
       </c>
     </row>
     <row r="10">
@@ -5384,13 +5054,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73.38543577225954</v>
+        <v>46.72989511865649</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1197.684217076161</v>
+        <v>1088.659826740888</v>
       </c>
       <c r="E10" t="n">
         <v>1.081111111111111</v>
@@ -5402,22 +5072,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.174369644659207</v>
+        <v>0.176729330900043</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0186650367137454</v>
+        <v>0.005384957976166722</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1007622381972549</v>
+        <v>0.102125819957914</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7041272085657178</v>
+        <v>0.7136559272202639</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002075871864075025</v>
+        <v>0.002103963945612324</v>
       </c>
     </row>
     <row r="11">
@@ -5436,7 +5106,7 @@
         <v>293.1871693088577</v>
       </c>
       <c r="E11" t="n">
-        <v>945.7081008249341</v>
+        <v>139.8919516816262</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -5463,7 +5133,7 @@
         <v>631.5000402827663</v>
       </c>
       <c r="E12" t="n">
-        <v>945.7081008249341</v>
+        <v>139.8919516816262</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -5487,25 +5157,25 @@
         <v>1.2</v>
       </c>
       <c r="D13" t="n">
-        <v>1187.3048898804</v>
+        <v>1186.107646260428</v>
       </c>
       <c r="E13" t="n">
-        <v>968.7221736924582</v>
+        <v>143.230724157864</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7491989123070442</v>
+        <v>0.7497378998264377</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1678514053020589</v>
+        <v>0.1678879339995278</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01692157209599907</v>
+        <v>0.01697584315320106</v>
       </c>
       <c r="I13" t="n">
-        <v>0.009605114260346721</v>
+        <v>0.009612024356749202</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05642299603455097</v>
+        <v>0.05578629866408425</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -5524,31 +5194,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>315.4123959010793</v>
+        <v>315.376998742511</v>
       </c>
       <c r="C14" t="n">
         <v>0.1</v>
       </c>
       <c r="D14" t="n">
-        <v>691.3670851696122</v>
+        <v>690.314608995569</v>
       </c>
       <c r="E14" t="n">
-        <v>968.7221736924582</v>
+        <v>143.230724157864</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7491989123070442</v>
+        <v>0.7497378998264377</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1678514053020589</v>
+        <v>0.1678879339995278</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01692157209599907</v>
+        <v>0.01697584315320106</v>
       </c>
       <c r="I14" t="n">
-        <v>0.009605114260346721</v>
+        <v>0.009612024356749202</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05642299603455097</v>
+        <v>0.05578629866408425</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -5573,25 +5243,25 @@
         <v>0.1</v>
       </c>
       <c r="D15" t="n">
-        <v>431.4001735732953</v>
+        <v>430.4779488665895</v>
       </c>
       <c r="E15" t="n">
-        <v>968.7221736924582</v>
+        <v>143.230724157864</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7491989123070442</v>
+        <v>0.7497378998264377</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1678514053020589</v>
+        <v>0.1678879339995278</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01692157209599907</v>
+        <v>0.01697584315320106</v>
       </c>
       <c r="I15" t="n">
-        <v>0.009605114260346721</v>
+        <v>0.009612024356749202</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05642299603455097</v>
+        <v>0.05578629866408425</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
